--- a/doc/assets/excel/库表设计.xlsx
+++ b/doc/assets/excel/库表设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuzhengwei/itstack/git/KnowledgePlanet/Lottery/doc/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358CA908-F6B0-FE44-AF43-EC490F5895DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB378BA-D495-DC46-A050-3D9D60A7E901}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{5B78EA90-A27C-8449-8C80-8B90733ED9B9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" xr2:uid="{5B78EA90-A27C-8449-8C80-8B90733ED9B9}"/>
   </bookViews>
   <sheets>
     <sheet name="抽奖系统表设计" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>活动表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="89">
   <si>
     <t>activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,22 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每人可参与次数(总)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每人可参与次数(日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存(日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存(总)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活动状态：编辑、提审、撤审、通过、运行、拒绝、关闭、开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,22 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stockAllTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stockDayTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>takeAllCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>takeDayCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,6 +120,266 @@
   </si>
   <si>
     <t>活动描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategyDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategyMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grantType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放奖品方式「即时、定时[含活动结束]、人工」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grantDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发放奖品时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人可参与次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategy_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中奖概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略方式「1:单项概率、2:总体概率」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品类型（文字描述、兑换码、优惠券、实物奖品暂无）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖品内容「文字描述、Key、码」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户参与活动记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与流水ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防重ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户活动参与次数表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余可参与次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户策略计算结果表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_take_activity_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_strategy_export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略状态[中奖、未中奖]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grantState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发奖状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_take_activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果单流水ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +462,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,147 +787,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ADDC7C-5C2B-A64C-887C-A95B3C2B04B8}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/doc/assets/excel/库表设计.xlsx
+++ b/doc/assets/excel/库表设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fuzhengwei/itstack/git/KnowledgePlanet/Lottery/doc/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB378BA-D495-DC46-A050-3D9D60A7E901}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5DF834-C02E-8243-8B26-BB17568CE2A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" xr2:uid="{5B78EA90-A27C-8449-8C80-8B90733ED9B9}"/>
   </bookViews>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ADDC7C-5C2B-A64C-887C-A95B3C2B04B8}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
